--- a/data_python/dfp_Abidar_El_Mehdi.xlsx
+++ b/data_python/dfp_Abidar_El_Mehdi.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S218"/>
+  <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +425,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>densite_pop</t>
+          <t>Densite_Pop</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,6 +481,11 @@
       <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Taux_activite</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Population_Active</t>
         </is>
       </c>
     </row>
@@ -553,6 +558,9 @@
       </c>
       <c r="S2" t="n">
         <v>29.6</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5879</v>
       </c>
     </row>
     <row r="3">
@@ -621,6 +629,9 @@
       <c r="S3" t="n">
         <v>40.6</v>
       </c>
+      <c r="T3" t="n">
+        <v>4021</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
@@ -688,6 +699,9 @@
       <c r="S4" t="n">
         <v>33.7</v>
       </c>
+      <c r="T4" t="n">
+        <v>2347</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -755,6 +769,9 @@
       <c r="S5" t="n">
         <v>34</v>
       </c>
+      <c r="T5" t="n">
+        <v>6537</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -822,6 +839,9 @@
       <c r="S6" t="n">
         <v>30.1</v>
       </c>
+      <c r="T6" t="n">
+        <v>2441</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
@@ -889,6 +909,9 @@
       <c r="S7" t="n">
         <v>34.9</v>
       </c>
+      <c r="T7" t="n">
+        <v>6726</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -956,6 +979,9 @@
       <c r="S8" t="n">
         <v>36.2</v>
       </c>
+      <c r="T8" t="n">
+        <v>8248</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -1023,6 +1049,9 @@
       <c r="S9" t="n">
         <v>35</v>
       </c>
+      <c r="T9" t="n">
+        <v>4358</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
@@ -1090,6 +1119,9 @@
       <c r="S10" t="n">
         <v>39.3</v>
       </c>
+      <c r="T10" t="n">
+        <v>8109</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -1157,6 +1189,9 @@
       <c r="S11" t="n">
         <v>33.5</v>
       </c>
+      <c r="T11" t="n">
+        <v>3458</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -1224,6 +1259,9 @@
       <c r="S12" t="n">
         <v>32.8</v>
       </c>
+      <c r="T12" t="n">
+        <v>4014</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -1291,6 +1329,9 @@
       <c r="S13" t="n">
         <v>38.1</v>
       </c>
+      <c r="T13" t="n">
+        <v>5556</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -1358,6 +1399,9 @@
       <c r="S14" t="n">
         <v>36.3</v>
       </c>
+      <c r="T14" t="n">
+        <v>7657</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -1425,6 +1469,9 @@
       <c r="S15" t="n">
         <v>41.2</v>
       </c>
+      <c r="T15" t="n">
+        <v>9206</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
@@ -1492,6 +1539,9 @@
       <c r="S16" t="n">
         <v>36.7</v>
       </c>
+      <c r="T16" t="n">
+        <v>4205</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -1559,6 +1609,9 @@
       <c r="S17" t="n">
         <v>36.3</v>
       </c>
+      <c r="T17" t="n">
+        <v>6942</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1626,6 +1679,9 @@
       <c r="S18" t="n">
         <v>39.2</v>
       </c>
+      <c r="T18" t="n">
+        <v>1655</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
@@ -1693,6 +1749,9 @@
       <c r="S19" t="n">
         <v>31.5</v>
       </c>
+      <c r="T19" t="n">
+        <v>4299</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1760,6 +1819,9 @@
       <c r="S20" t="n">
         <v>34.9</v>
       </c>
+      <c r="T20" t="n">
+        <v>1454</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1827,6 +1889,9 @@
       <c r="S21" t="n">
         <v>25.7</v>
       </c>
+      <c r="T21" t="n">
+        <v>1622</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
@@ -1894,6 +1959,9 @@
       <c r="S22" t="n">
         <v>37.8</v>
       </c>
+      <c r="T22" t="n">
+        <v>2178</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1961,6 +2029,9 @@
       <c r="S23" t="n">
         <v>33.1</v>
       </c>
+      <c r="T23" t="n">
+        <v>1984</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -2028,6 +2099,9 @@
       <c r="S24" t="n">
         <v>30</v>
       </c>
+      <c r="T24" t="n">
+        <v>1839</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
@@ -2095,6 +2169,9 @@
       <c r="S25" t="n">
         <v>40.4</v>
       </c>
+      <c r="T25" t="n">
+        <v>2242</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
@@ -2162,6 +2239,9 @@
       <c r="S26" t="n">
         <v>32.4</v>
       </c>
+      <c r="T26" t="n">
+        <v>2101</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
@@ -2229,6 +2309,9 @@
       <c r="S27" t="n">
         <v>29.6</v>
       </c>
+      <c r="T27" t="n">
+        <v>1150</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
@@ -2296,6 +2379,9 @@
       <c r="S28" t="n">
         <v>32.3</v>
       </c>
+      <c r="T28" t="n">
+        <v>1488</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
@@ -2363,6 +2449,9 @@
       <c r="S29" t="n">
         <v>43.9</v>
       </c>
+      <c r="T29" t="n">
+        <v>8172</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
@@ -2430,6 +2519,9 @@
       <c r="S30" t="n">
         <v>32.3</v>
       </c>
+      <c r="T30" t="n">
+        <v>1814</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
@@ -2497,6 +2589,9 @@
       <c r="S31" t="n">
         <v>34.5</v>
       </c>
+      <c r="T31" t="n">
+        <v>2291</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
@@ -2564,6 +2659,9 @@
       <c r="S32" t="n">
         <v>49.2</v>
       </c>
+      <c r="T32" t="n">
+        <v>2724</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
@@ -2631,6 +2729,9 @@
       <c r="S33" t="n">
         <v>37.6</v>
       </c>
+      <c r="T33" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
@@ -2698,6 +2799,9 @@
       <c r="S34" t="n">
         <v>36.7</v>
       </c>
+      <c r="T34" t="n">
+        <v>2826</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
@@ -2765,6 +2869,9 @@
       <c r="S35" t="n">
         <v>39.4</v>
       </c>
+      <c r="T35" t="n">
+        <v>4317</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
@@ -2832,6 +2939,9 @@
       <c r="S36" t="n">
         <v>34.2</v>
       </c>
+      <c r="T36" t="n">
+        <v>1496</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
@@ -2899,6 +3009,9 @@
       <c r="S37" t="n">
         <v>36.7</v>
       </c>
+      <c r="T37" t="n">
+        <v>9897</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
@@ -2966,6 +3079,9 @@
       <c r="S38" t="n">
         <v>36.8</v>
       </c>
+      <c r="T38" t="n">
+        <v>8197</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
@@ -3033,6 +3149,9 @@
       <c r="S39" t="n">
         <v>34.2</v>
       </c>
+      <c r="T39" t="n">
+        <v>10106</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
@@ -3100,6 +3219,9 @@
       <c r="S40" t="n">
         <v>34.6</v>
       </c>
+      <c r="T40" t="n">
+        <v>7407</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3170,6 +3292,9 @@
       </c>
       <c r="S41" t="n">
         <v>33.8</v>
+      </c>
+      <c r="T41" t="n">
+        <v>5287</v>
       </c>
     </row>
     <row r="42">
@@ -3238,6 +3363,9 @@
       <c r="S42" t="n">
         <v>29.3</v>
       </c>
+      <c r="T42" t="n">
+        <v>4995</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n"/>
@@ -3305,6 +3433,9 @@
       <c r="S43" t="n">
         <v>36.4</v>
       </c>
+      <c r="T43" t="n">
+        <v>4282</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n"/>
@@ -3372,6 +3503,9 @@
       <c r="S44" t="n">
         <v>28.7</v>
       </c>
+      <c r="T44" t="n">
+        <v>1811</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
@@ -3439,6 +3573,9 @@
       <c r="S45" t="n">
         <v>33.9</v>
       </c>
+      <c r="T45" t="n">
+        <v>7606</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n"/>
@@ -3506,6 +3643,9 @@
       <c r="S46" t="n">
         <v>36.7</v>
       </c>
+      <c r="T46" t="n">
+        <v>2619</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n"/>
@@ -3573,6 +3713,9 @@
       <c r="S47" t="n">
         <v>37.1</v>
       </c>
+      <c r="T47" t="n">
+        <v>2423</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
@@ -3640,6 +3783,9 @@
       <c r="S48" t="n">
         <v>34.1</v>
       </c>
+      <c r="T48" t="n">
+        <v>6523</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n"/>
@@ -3707,6 +3853,9 @@
       <c r="S49" t="n">
         <v>33.1</v>
       </c>
+      <c r="T49" t="n">
+        <v>3094</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
@@ -3774,6 +3923,9 @@
       <c r="S50" t="n">
         <v>38</v>
       </c>
+      <c r="T50" t="n">
+        <v>1804</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n"/>
@@ -3841,6 +3993,9 @@
       <c r="S51" t="n">
         <v>35.2</v>
       </c>
+      <c r="T51" t="n">
+        <v>2802</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
@@ -3908,6 +4063,9 @@
       <c r="S52" t="n">
         <v>31.2</v>
       </c>
+      <c r="T52" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n"/>
@@ -3975,6 +4133,9 @@
       <c r="S53" t="n">
         <v>28</v>
       </c>
+      <c r="T53" t="n">
+        <v>1550</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
@@ -4042,6 +4203,9 @@
       <c r="S54" t="n">
         <v>31.3</v>
       </c>
+      <c r="T54" t="n">
+        <v>1889</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
@@ -4109,6 +4273,9 @@
       <c r="S55" t="n">
         <v>24.5</v>
       </c>
+      <c r="T55" t="n">
+        <v>1906</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
@@ -4176,6 +4343,9 @@
       <c r="S56" t="n">
         <v>33.4</v>
       </c>
+      <c r="T56" t="n">
+        <v>1820</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
@@ -4243,6 +4413,9 @@
       <c r="S57" t="n">
         <v>27.6</v>
       </c>
+      <c r="T57" t="n">
+        <v>1890</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
@@ -4310,6 +4483,9 @@
       <c r="S58" t="n">
         <v>35.2</v>
       </c>
+      <c r="T58" t="n">
+        <v>3050</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
@@ -4377,6 +4553,9 @@
       <c r="S59" t="n">
         <v>43.2</v>
       </c>
+      <c r="T59" t="n">
+        <v>3746</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
@@ -4444,6 +4623,9 @@
       <c r="S60" t="n">
         <v>48</v>
       </c>
+      <c r="T60" t="n">
+        <v>3461</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
@@ -4511,6 +4693,9 @@
       <c r="S61" t="n">
         <v>29.2</v>
       </c>
+      <c r="T61" t="n">
+        <v>1959</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
@@ -4578,6 +4763,9 @@
       <c r="S62" t="n">
         <v>28.8</v>
       </c>
+      <c r="T62" t="n">
+        <v>4083</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
@@ -4645,6 +4833,9 @@
       <c r="S63" t="n">
         <v>36.6</v>
       </c>
+      <c r="T63" t="n">
+        <v>3396</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
@@ -4712,6 +4903,9 @@
       <c r="S64" t="n">
         <v>31.2</v>
       </c>
+      <c r="T64" t="n">
+        <v>3080</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
@@ -4779,6 +4973,9 @@
       <c r="S65" t="n">
         <v>35.9</v>
       </c>
+      <c r="T65" t="n">
+        <v>4230</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
@@ -4846,6 +5043,9 @@
       <c r="S66" t="n">
         <v>34.8</v>
       </c>
+      <c r="T66" t="n">
+        <v>5272</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
@@ -4913,6 +5113,9 @@
       <c r="S67" t="n">
         <v>35.2</v>
       </c>
+      <c r="T67" t="n">
+        <v>5611</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
@@ -4980,6 +5183,9 @@
       <c r="S68" t="n">
         <v>35.5</v>
       </c>
+      <c r="T68" t="n">
+        <v>4329</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
@@ -5047,6 +5253,9 @@
       <c r="S69" t="n">
         <v>29.5</v>
       </c>
+      <c r="T69" t="n">
+        <v>2426</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
@@ -5114,6 +5323,9 @@
       <c r="S70" t="n">
         <v>32.7</v>
       </c>
+      <c r="T70" t="n">
+        <v>2420</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
@@ -5181,6 +5393,9 @@
       <c r="S71" t="n">
         <v>28.5</v>
       </c>
+      <c r="T71" t="n">
+        <v>1293</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
@@ -5248,6 +5463,9 @@
       <c r="S72" t="n">
         <v>39.8</v>
       </c>
+      <c r="T72" t="n">
+        <v>2530</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
@@ -5315,6 +5533,9 @@
       <c r="S73" t="n">
         <v>38</v>
       </c>
+      <c r="T73" t="n">
+        <v>3720</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
@@ -5382,6 +5603,9 @@
       <c r="S74" t="n">
         <v>36.3</v>
       </c>
+      <c r="T74" t="n">
+        <v>3872</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
@@ -5449,6 +5673,9 @@
       <c r="S75" t="n">
         <v>27.9</v>
       </c>
+      <c r="T75" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -5519,6 +5746,9 @@
       </c>
       <c r="S76" t="n">
         <v>32.3</v>
+      </c>
+      <c r="T76" t="n">
+        <v>20249</v>
       </c>
     </row>
     <row r="77">
@@ -5587,6 +5817,9 @@
       <c r="S77" t="n">
         <v>31.5</v>
       </c>
+      <c r="T77" t="n">
+        <v>21499</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
@@ -5654,6 +5887,9 @@
       <c r="S78" t="n">
         <v>28.9</v>
       </c>
+      <c r="T78" t="n">
+        <v>5848</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
@@ -5721,6 +5957,9 @@
       <c r="S79" t="n">
         <v>30.9</v>
       </c>
+      <c r="T79" t="n">
+        <v>1962</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
@@ -5788,6 +6027,9 @@
       <c r="S80" t="n">
         <v>29.8</v>
       </c>
+      <c r="T80" t="n">
+        <v>3628</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
@@ -5855,6 +6097,9 @@
       <c r="S81" t="n">
         <v>30.6</v>
       </c>
+      <c r="T81" t="n">
+        <v>2409</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
@@ -5922,6 +6167,9 @@
       <c r="S82" t="n">
         <v>30.3</v>
       </c>
+      <c r="T82" t="n">
+        <v>2046</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
@@ -5989,6 +6237,9 @@
       <c r="S83" t="n">
         <v>27.5</v>
       </c>
+      <c r="T83" t="n">
+        <v>2305</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
@@ -6056,6 +6307,9 @@
       <c r="S84" t="n">
         <v>32.5</v>
       </c>
+      <c r="T84" t="n">
+        <v>2459</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
@@ -6123,6 +6377,9 @@
       <c r="S85" t="n">
         <v>32.3</v>
       </c>
+      <c r="T85" t="n">
+        <v>1472</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
@@ -6190,6 +6447,9 @@
       <c r="S86" t="n">
         <v>36.6</v>
       </c>
+      <c r="T86" t="n">
+        <v>3477</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
@@ -6257,6 +6517,9 @@
       <c r="S87" t="n">
         <v>32</v>
       </c>
+      <c r="T87" t="n">
+        <v>3061</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
@@ -6324,6 +6587,9 @@
       <c r="S88" t="n">
         <v>35.2</v>
       </c>
+      <c r="T88" t="n">
+        <v>4049</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
@@ -6391,6 +6657,9 @@
       <c r="S89" t="n">
         <v>34.7</v>
       </c>
+      <c r="T89" t="n">
+        <v>2112</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
@@ -6458,6 +6727,9 @@
       <c r="S90" t="n">
         <v>33</v>
       </c>
+      <c r="T90" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
@@ -6525,6 +6797,9 @@
       <c r="S91" t="n">
         <v>31.1</v>
       </c>
+      <c r="T91" t="n">
+        <v>2228</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
@@ -6592,6 +6867,9 @@
       <c r="S92" t="n">
         <v>31</v>
       </c>
+      <c r="T92" t="n">
+        <v>1913</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
@@ -6659,6 +6937,9 @@
       <c r="S93" t="n">
         <v>34.1</v>
       </c>
+      <c r="T93" t="n">
+        <v>1627</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
@@ -6726,6 +7007,9 @@
       <c r="S94" t="n">
         <v>31.1</v>
       </c>
+      <c r="T94" t="n">
+        <v>1712</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
@@ -6793,6 +7077,9 @@
       <c r="S95" t="n">
         <v>31.1</v>
       </c>
+      <c r="T95" t="n">
+        <v>1906</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
@@ -6860,6 +7147,9 @@
       <c r="S96" t="n">
         <v>34.5</v>
       </c>
+      <c r="T96" t="n">
+        <v>2241</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
@@ -6927,6 +7217,9 @@
       <c r="S97" t="n">
         <v>35.8</v>
       </c>
+      <c r="T97" t="n">
+        <v>4018</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
@@ -6994,6 +7287,9 @@
       <c r="S98" t="n">
         <v>33.7</v>
       </c>
+      <c r="T98" t="n">
+        <v>2757</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
@@ -7061,6 +7357,9 @@
       <c r="S99" t="n">
         <v>35.3</v>
       </c>
+      <c r="T99" t="n">
+        <v>3268</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
@@ -7128,6 +7427,9 @@
       <c r="S100" t="n">
         <v>33.5</v>
       </c>
+      <c r="T100" t="n">
+        <v>1712</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
@@ -7195,6 +7497,9 @@
       <c r="S101" t="n">
         <v>31.9</v>
       </c>
+      <c r="T101" t="n">
+        <v>2816</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
@@ -7262,6 +7567,9 @@
       <c r="S102" t="n">
         <v>30.9</v>
       </c>
+      <c r="T102" t="n">
+        <v>4376</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
@@ -7329,6 +7637,9 @@
       <c r="S103" t="n">
         <v>33</v>
       </c>
+      <c r="T103" t="n">
+        <v>4264</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
@@ -7396,6 +7707,9 @@
       <c r="S104" t="n">
         <v>33.2</v>
       </c>
+      <c r="T104" t="n">
+        <v>3179</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
@@ -7463,6 +7777,9 @@
       <c r="S105" t="n">
         <v>30.1</v>
       </c>
+      <c r="T105" t="n">
+        <v>2865</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n"/>
@@ -7530,6 +7847,9 @@
       <c r="S106" t="n">
         <v>29.1</v>
       </c>
+      <c r="T106" t="n">
+        <v>3071</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n"/>
@@ -7597,6 +7917,9 @@
       <c r="S107" t="n">
         <v>31</v>
       </c>
+      <c r="T107" t="n">
+        <v>3364</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
@@ -7664,6 +7987,9 @@
       <c r="S108" t="n">
         <v>30.1</v>
       </c>
+      <c r="T108" t="n">
+        <v>3420</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
@@ -7731,6 +8057,9 @@
       <c r="S109" t="n">
         <v>33.1</v>
       </c>
+      <c r="T109" t="n">
+        <v>3345</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
@@ -7798,6 +8127,9 @@
       <c r="S110" t="n">
         <v>35.4</v>
       </c>
+      <c r="T110" t="n">
+        <v>1375</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
@@ -7865,6 +8197,9 @@
       <c r="S111" t="n">
         <v>34.2</v>
       </c>
+      <c r="T111" t="n">
+        <v>3201</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n"/>
@@ -7932,6 +8267,9 @@
       <c r="S112" t="n">
         <v>31</v>
       </c>
+      <c r="T112" t="n">
+        <v>2868</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
@@ -7999,6 +8337,9 @@
       <c r="S113" t="n">
         <v>29</v>
       </c>
+      <c r="T113" t="n">
+        <v>2932</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n"/>
@@ -8066,6 +8407,9 @@
       <c r="S114" t="n">
         <v>39.1</v>
       </c>
+      <c r="T114" t="n">
+        <v>2537</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n"/>
@@ -8133,6 +8477,9 @@
       <c r="S115" t="n">
         <v>35.3</v>
       </c>
+      <c r="T115" t="n">
+        <v>2846</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n"/>
@@ -8200,6 +8547,9 @@
       <c r="S116" t="n">
         <v>36.7</v>
       </c>
+      <c r="T116" t="n">
+        <v>6498</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
@@ -8267,6 +8617,9 @@
       <c r="S117" t="n">
         <v>33.5</v>
       </c>
+      <c r="T117" t="n">
+        <v>1309</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
@@ -8334,6 +8687,9 @@
       <c r="S118" t="n">
         <v>33</v>
       </c>
+      <c r="T118" t="n">
+        <v>5278</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n"/>
@@ -8401,6 +8757,9 @@
       <c r="S119" t="n">
         <v>34.5</v>
       </c>
+      <c r="T119" t="n">
+        <v>9455</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
@@ -8468,6 +8827,9 @@
       <c r="S120" t="n">
         <v>32.3</v>
       </c>
+      <c r="T120" t="n">
+        <v>2422</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n"/>
@@ -8535,6 +8897,9 @@
       <c r="S121" t="n">
         <v>36.3</v>
       </c>
+      <c r="T121" t="n">
+        <v>3220</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n"/>
@@ -8602,6 +8967,9 @@
       <c r="S122" t="n">
         <v>35.6</v>
       </c>
+      <c r="T122" t="n">
+        <v>3401</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n"/>
@@ -8669,6 +9037,9 @@
       <c r="S123" t="n">
         <v>36.9</v>
       </c>
+      <c r="T123" t="n">
+        <v>3712</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n"/>
@@ -8736,6 +9107,9 @@
       <c r="S124" t="n">
         <v>37.1</v>
       </c>
+      <c r="T124" t="n">
+        <v>4906</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n"/>
@@ -8803,6 +9177,9 @@
       <c r="S125" t="n">
         <v>34.8</v>
       </c>
+      <c r="T125" t="n">
+        <v>1872</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
@@ -8870,6 +9247,9 @@
       <c r="S126" t="n">
         <v>36.4</v>
       </c>
+      <c r="T126" t="n">
+        <v>3113</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n"/>
@@ -8937,6 +9317,9 @@
       <c r="S127" t="n">
         <v>37.2</v>
       </c>
+      <c r="T127" t="n">
+        <v>3785</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
@@ -9004,6 +9387,9 @@
       <c r="S128" t="n">
         <v>31.6</v>
       </c>
+      <c r="T128" t="n">
+        <v>2178</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
@@ -9071,6 +9457,9 @@
       <c r="S129" t="n">
         <v>48.6</v>
       </c>
+      <c r="T129" t="n">
+        <v>5909</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
@@ -9138,6 +9527,9 @@
       <c r="S130" t="n">
         <v>39.4</v>
       </c>
+      <c r="T130" t="n">
+        <v>2489</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
@@ -9205,6 +9597,9 @@
       <c r="S131" t="n">
         <v>33.1</v>
       </c>
+      <c r="T131" t="n">
+        <v>4746</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
@@ -9272,6 +9667,9 @@
       <c r="S132" t="n">
         <v>36.5</v>
       </c>
+      <c r="T132" t="n">
+        <v>3263</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
@@ -9339,6 +9737,9 @@
       <c r="S133" t="n">
         <v>30.9</v>
       </c>
+      <c r="T133" t="n">
+        <v>1749</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n"/>
@@ -9406,6 +9807,9 @@
       <c r="S134" t="n">
         <v>35.4</v>
       </c>
+      <c r="T134" t="n">
+        <v>2034</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n"/>
@@ -9473,6 +9877,9 @@
       <c r="S135" t="n">
         <v>34.8</v>
       </c>
+      <c r="T135" t="n">
+        <v>3818</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
@@ -9540,6 +9947,9 @@
       <c r="S136" t="n">
         <v>30.9</v>
       </c>
+      <c r="T136" t="n">
+        <v>3143</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n"/>
@@ -9607,6 +10017,9 @@
       <c r="S137" t="n">
         <v>29.2</v>
       </c>
+      <c r="T137" t="n">
+        <v>3240</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n"/>
@@ -9674,6 +10087,9 @@
       <c r="S138" t="n">
         <v>31.2</v>
       </c>
+      <c r="T138" t="n">
+        <v>3007</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n"/>
@@ -9741,6 +10157,9 @@
       <c r="S139" t="n">
         <v>35</v>
       </c>
+      <c r="T139" t="n">
+        <v>4523</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n"/>
@@ -9808,6 +10227,9 @@
       <c r="S140" t="n">
         <v>30.3</v>
       </c>
+      <c r="T140" t="n">
+        <v>1938</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n"/>
@@ -9875,6 +10297,9 @@
       <c r="S141" t="n">
         <v>39</v>
       </c>
+      <c r="T141" t="n">
+        <v>6821</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n"/>
@@ -9942,6 +10367,9 @@
       <c r="S142" t="n">
         <v>34.4</v>
       </c>
+      <c r="T142" t="n">
+        <v>3405</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -10012,6 +10440,9 @@
       </c>
       <c r="S143" t="n">
         <v>31.2</v>
+      </c>
+      <c r="T143" t="n">
+        <v>779</v>
       </c>
     </row>
     <row r="144">
@@ -10080,6 +10511,9 @@
       <c r="S144" t="n">
         <v>34.3</v>
       </c>
+      <c r="T144" t="n">
+        <v>1611</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n"/>
@@ -10147,6 +10581,9 @@
       <c r="S145" t="n">
         <v>39.5</v>
       </c>
+      <c r="T145" t="n">
+        <v>27256</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n"/>
@@ -10214,6 +10651,9 @@
       <c r="S146" t="n">
         <v>35.3</v>
       </c>
+      <c r="T146" t="n">
+        <v>1458</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
@@ -10281,6 +10721,9 @@
       <c r="S147" t="n">
         <v>31.6</v>
       </c>
+      <c r="T147" t="n">
+        <v>3149</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n"/>
@@ -10348,6 +10791,9 @@
       <c r="S148" t="n">
         <v>35.4</v>
       </c>
+      <c r="T148" t="n">
+        <v>2506</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n"/>
@@ -10415,6 +10861,9 @@
       <c r="S149" t="n">
         <v>38.8</v>
       </c>
+      <c r="T149" t="n">
+        <v>5834</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n"/>
@@ -10482,6 +10931,9 @@
       <c r="S150" t="n">
         <v>35.1</v>
       </c>
+      <c r="T150" t="n">
+        <v>3153</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n"/>
@@ -10549,6 +11001,9 @@
       <c r="S151" t="n">
         <v>34.1</v>
       </c>
+      <c r="T151" t="n">
+        <v>2274</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n"/>
@@ -10616,6 +11071,9 @@
       <c r="S152" t="n">
         <v>33.5</v>
       </c>
+      <c r="T152" t="n">
+        <v>3629</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n"/>
@@ -10683,6 +11141,9 @@
       <c r="S153" t="n">
         <v>30.4</v>
       </c>
+      <c r="T153" t="n">
+        <v>2090</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n"/>
@@ -10750,6 +11211,9 @@
       <c r="S154" t="n">
         <v>40.6</v>
       </c>
+      <c r="T154" t="n">
+        <v>2161</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n"/>
@@ -10817,6 +11281,9 @@
       <c r="S155" t="n">
         <v>45.9</v>
       </c>
+      <c r="T155" t="n">
+        <v>3226</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n"/>
@@ -10884,6 +11351,9 @@
       <c r="S156" t="n">
         <v>43.7</v>
       </c>
+      <c r="T156" t="n">
+        <v>1844</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n"/>
@@ -10951,6 +11421,9 @@
       <c r="S157" t="n">
         <v>37.5</v>
       </c>
+      <c r="T157" t="n">
+        <v>2346</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n"/>
@@ -11018,6 +11491,9 @@
       <c r="S158" t="n">
         <v>45.9</v>
       </c>
+      <c r="T158" t="n">
+        <v>2739</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n"/>
@@ -11085,6 +11561,9 @@
       <c r="S159" t="n">
         <v>33.1</v>
       </c>
+      <c r="T159" t="n">
+        <v>1516</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n"/>
@@ -11152,6 +11631,9 @@
       <c r="S160" t="n">
         <v>33</v>
       </c>
+      <c r="T160" t="n">
+        <v>1802</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n"/>
@@ -11219,6 +11701,9 @@
       <c r="S161" t="n">
         <v>37.2</v>
       </c>
+      <c r="T161" t="n">
+        <v>2894</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n"/>
@@ -11286,6 +11771,9 @@
       <c r="S162" t="n">
         <v>33.2</v>
       </c>
+      <c r="T162" t="n">
+        <v>1287</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n"/>
@@ -11353,6 +11841,9 @@
       <c r="S163" t="n">
         <v>36.8</v>
       </c>
+      <c r="T163" t="n">
+        <v>4432</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n"/>
@@ -11420,6 +11911,9 @@
       <c r="S164" t="n">
         <v>37.7</v>
       </c>
+      <c r="T164" t="n">
+        <v>2625</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n"/>
@@ -11487,6 +11981,9 @@
       <c r="S165" t="n">
         <v>36.8</v>
       </c>
+      <c r="T165" t="n">
+        <v>2804</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n"/>
@@ -11554,6 +12051,9 @@
       <c r="S166" t="n">
         <v>35.4</v>
       </c>
+      <c r="T166" t="n">
+        <v>2344</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n"/>
@@ -11621,6 +12121,9 @@
       <c r="S167" t="n">
         <v>30.2</v>
       </c>
+      <c r="T167" t="n">
+        <v>2379</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n"/>
@@ -11688,6 +12191,9 @@
       <c r="S168" t="n">
         <v>39</v>
       </c>
+      <c r="T168" t="n">
+        <v>3725</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n"/>
@@ -11755,6 +12261,9 @@
       <c r="S169" t="n">
         <v>39.9</v>
       </c>
+      <c r="T169" t="n">
+        <v>5267</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n"/>
@@ -11822,6 +12331,9 @@
       <c r="S170" t="n">
         <v>37.5</v>
       </c>
+      <c r="T170" t="n">
+        <v>2283</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n"/>
@@ -11889,6 +12401,9 @@
       <c r="S171" t="n">
         <v>32.6</v>
       </c>
+      <c r="T171" t="n">
+        <v>2317</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n"/>
@@ -11956,6 +12471,9 @@
       <c r="S172" t="n">
         <v>34.2</v>
       </c>
+      <c r="T172" t="n">
+        <v>3925</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n"/>
@@ -12023,6 +12541,9 @@
       <c r="S173" t="n">
         <v>32.5</v>
       </c>
+      <c r="T173" t="n">
+        <v>2078</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n"/>
@@ -12090,6 +12611,9 @@
       <c r="S174" t="n">
         <v>37.6</v>
       </c>
+      <c r="T174" t="n">
+        <v>1248</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n"/>
@@ -12157,6 +12681,9 @@
       <c r="S175" t="n">
         <v>28</v>
       </c>
+      <c r="T175" t="n">
+        <v>2501</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n"/>
@@ -12224,6 +12751,9 @@
       <c r="S176" t="n">
         <v>42.1</v>
       </c>
+      <c r="T176" t="n">
+        <v>2070</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n"/>
@@ -12291,6 +12821,9 @@
       <c r="S177" t="n">
         <v>30.4</v>
       </c>
+      <c r="T177" t="n">
+        <v>1652</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n"/>
@@ -12358,6 +12891,9 @@
       <c r="S178" t="n">
         <v>30.1</v>
       </c>
+      <c r="T178" t="n">
+        <v>2288</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n"/>
@@ -12425,6 +12961,9 @@
       <c r="S179" t="n">
         <v>32.8</v>
       </c>
+      <c r="T179" t="n">
+        <v>2798</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n"/>
@@ -12492,6 +13031,9 @@
       <c r="S180" t="n">
         <v>27.1</v>
       </c>
+      <c r="T180" t="n">
+        <v>1795</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n"/>
@@ -12559,6 +13101,9 @@
       <c r="S181" t="n">
         <v>38.9</v>
       </c>
+      <c r="T181" t="n">
+        <v>2550</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n"/>
@@ -12626,6 +13171,9 @@
       <c r="S182" t="n">
         <v>39.9</v>
       </c>
+      <c r="T182" t="n">
+        <v>2925</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n"/>
@@ -12693,6 +13241,9 @@
       <c r="S183" t="n">
         <v>29.5</v>
       </c>
+      <c r="T183" t="n">
+        <v>1961</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n"/>
@@ -12760,6 +13311,9 @@
       <c r="S184" t="n">
         <v>32.1</v>
       </c>
+      <c r="T184" t="n">
+        <v>2064</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n"/>
@@ -12827,6 +13381,9 @@
       <c r="S185" t="n">
         <v>35.8</v>
       </c>
+      <c r="T185" t="n">
+        <v>2537</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n"/>
@@ -12894,6 +13451,9 @@
       <c r="S186" t="n">
         <v>28.5</v>
       </c>
+      <c r="T186" t="n">
+        <v>2337</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n"/>
@@ -12961,6 +13521,9 @@
       <c r="S187" t="n">
         <v>29.3</v>
       </c>
+      <c r="T187" t="n">
+        <v>1770</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n"/>
@@ -13028,6 +13591,9 @@
       <c r="S188" t="n">
         <v>30.6</v>
       </c>
+      <c r="T188" t="n">
+        <v>2252</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n"/>
@@ -13095,6 +13661,9 @@
       <c r="S189" t="n">
         <v>29.9</v>
       </c>
+      <c r="T189" t="n">
+        <v>1519</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n"/>
@@ -13162,6 +13731,9 @@
       <c r="S190" t="n">
         <v>51.2</v>
       </c>
+      <c r="T190" t="n">
+        <v>3163</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n"/>
@@ -13229,6 +13801,9 @@
       <c r="S191" t="n">
         <v>49.1</v>
       </c>
+      <c r="T191" t="n">
+        <v>2111</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n"/>
@@ -13296,6 +13871,9 @@
       <c r="S192" t="n">
         <v>39.4</v>
       </c>
+      <c r="T192" t="n">
+        <v>1707</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n"/>
@@ -13363,6 +13941,9 @@
       <c r="S193" t="n">
         <v>28.4</v>
       </c>
+      <c r="T193" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n"/>
@@ -13430,6 +14011,9 @@
       <c r="S194" t="n">
         <v>38.7</v>
       </c>
+      <c r="T194" t="n">
+        <v>2025</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n"/>
@@ -13497,6 +14081,9 @@
       <c r="S195" t="n">
         <v>36.7</v>
       </c>
+      <c r="T195" t="n">
+        <v>1670</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n"/>
@@ -13564,6 +14151,9 @@
       <c r="S196" t="n">
         <v>45.3</v>
       </c>
+      <c r="T196" t="n">
+        <v>2323</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n"/>
@@ -13631,6 +14221,9 @@
       <c r="S197" t="n">
         <v>32.4</v>
       </c>
+      <c r="T197" t="n">
+        <v>2549</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n"/>
@@ -13698,6 +14291,9 @@
       <c r="S198" t="n">
         <v>34.1</v>
       </c>
+      <c r="T198" t="n">
+        <v>1626</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n"/>
@@ -13765,6 +14361,9 @@
       <c r="S199" t="n">
         <v>33.8</v>
       </c>
+      <c r="T199" t="n">
+        <v>1763</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -13835,6 +14434,9 @@
       </c>
       <c r="S200" t="n">
         <v>40.4</v>
+      </c>
+      <c r="T200" t="n">
+        <v>8755</v>
       </c>
     </row>
     <row r="201">
@@ -13903,6 +14505,9 @@
       <c r="S201" t="n">
         <v>40</v>
       </c>
+      <c r="T201" t="n">
+        <v>21644</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n"/>
@@ -13970,6 +14575,9 @@
       <c r="S202" t="n">
         <v>39.3</v>
       </c>
+      <c r="T202" t="n">
+        <v>66257</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n"/>
@@ -14037,6 +14645,9 @@
       <c r="S203" t="n">
         <v>41</v>
       </c>
+      <c r="T203" t="n">
+        <v>68351</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n"/>
@@ -14104,6 +14715,9 @@
       <c r="S204" t="n">
         <v>36.5</v>
       </c>
+      <c r="T204" t="n">
+        <v>102300</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n"/>
@@ -14171,6 +14785,9 @@
       <c r="S205" t="n">
         <v>37.5</v>
       </c>
+      <c r="T205" t="n">
+        <v>46848</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n"/>
@@ -14238,6 +14855,9 @@
       <c r="S206" t="n">
         <v>38.1</v>
       </c>
+      <c r="T206" t="n">
+        <v>7972</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n"/>
@@ -14305,6 +14925,9 @@
       <c r="S207" t="n">
         <v>34.9</v>
       </c>
+      <c r="T207" t="n">
+        <v>5935</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n"/>
@@ -14372,6 +14995,9 @@
       <c r="S208" t="n">
         <v>39.1</v>
       </c>
+      <c r="T208" t="n">
+        <v>4596</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n"/>
@@ -14439,6 +15065,9 @@
       <c r="S209" t="n">
         <v>32.1</v>
       </c>
+      <c r="T209" t="n">
+        <v>4304</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n"/>
@@ -14506,6 +15135,9 @@
       <c r="S210" t="n">
         <v>36.9</v>
       </c>
+      <c r="T210" t="n">
+        <v>7080</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n"/>
@@ -14573,6 +15205,9 @@
       <c r="S211" t="n">
         <v>36.7</v>
       </c>
+      <c r="T211" t="n">
+        <v>5408</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n"/>
@@ -14640,6 +15275,9 @@
       <c r="S212" t="n">
         <v>32.1</v>
       </c>
+      <c r="T212" t="n">
+        <v>3556</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n"/>
@@ -14707,6 +15345,9 @@
       <c r="S213" t="n">
         <v>32.1</v>
       </c>
+      <c r="T213" t="n">
+        <v>3904</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n"/>
@@ -14774,6 +15415,9 @@
       <c r="S214" t="n">
         <v>37.9</v>
       </c>
+      <c r="T214" t="n">
+        <v>10232</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n"/>
@@ -14841,6 +15485,9 @@
       <c r="S215" t="n">
         <v>32.6</v>
       </c>
+      <c r="T215" t="n">
+        <v>12733</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n"/>
@@ -14908,6 +15555,9 @@
       <c r="S216" t="n">
         <v>35.7</v>
       </c>
+      <c r="T216" t="n">
+        <v>4057</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n"/>
@@ -14975,6 +15625,9 @@
       <c r="S217" t="n">
         <v>35.8</v>
       </c>
+      <c r="T217" t="n">
+        <v>6907</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n"/>
@@ -15041,6 +15694,9 @@
       </c>
       <c r="S218" t="n">
         <v>33.7</v>
+      </c>
+      <c r="T218" t="n">
+        <v>10156</v>
       </c>
     </row>
   </sheetData>
